--- a/docs/incorrect_alm_asset.xlsx
+++ b/docs/incorrect_alm_asset.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myFiles\github\You-Dont-Know-SN-APIs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB321109-F717-40A3-9C21-21D48B2E9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3702A3D-12F5-4404-B3C2-FDFF0547551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Page 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="1112">
   <si>
     <t>Asset tag</t>
   </si>
@@ -3302,6 +3303,60 @@
   </si>
   <si>
     <t>SW000080</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t>Title 2</t>
+  </si>
+  <si>
+    <t>Title 3</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
   </si>
 </sst>
 </file>
@@ -3708,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G972"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -26055,4 +26110,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A92FB57-560C-4D76-B994-EEF3DEBE6A00}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>